--- a/biology/Zoologie/Ceratitis/Ceratitis.xlsx
+++ b/biology/Zoologie/Ceratitis/Ceratitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratitis est un genre d'insectes diptères de la famille des Tephritidae (un des nombreux genres de mouches des fruits).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste de sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (29 avril 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (29 avril 2010) :
 Ceratitis Acropteromma
 Ceratitis Ceratalaspis Hancock, 1984
 Ceratitis (Ceratitis) Macleay, 1829
@@ -549,9 +563,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-genre Acropteromma
+          <t>Sous-genre Acropteromma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ceratitis munroana (Bezzi)
-Sous-genre Ceratalaspis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ceratitis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratitis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genre Ceratalaspis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ceratitis aliena (Bezzi)
 Ceratitis andranotobaka Hancock
 Ceratitis antistictica Bezzi
@@ -586,7 +642,43 @@
 Ceratitis sucini De Meyer
 Ceratitis turneri (Munro)
 Ceratitis venusta (Munro)
-Sous-genre Ceratitis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ceratitis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratitis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Ceratitis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ceratitis brachychaeta Freidberg
 Ceratitis caetrata Munro
 Ceratitis capitata (Wiedemann)
@@ -595,9 +687,81 @@
 Ceratitis malgassa Munro
 Ceratitis manjakatompo Hancock
 Ceratitis pinax Munro
-Sous-genre Hoplolophomyia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceratitis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratitis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Hoplolophomyia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ceratitis cristata (Bezzi)
-Sous-genre Pardalaspis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ceratitis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratitis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Pardalaspis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ceratitis bremii Guérin-Méneville
 Ceratitis cuthbertsoni (Munro)
 Ceratitis ditissima (Munro)
@@ -608,7 +772,43 @@
 Ceratitis semipunctata De Meyer
 Ceratitis serrata De Meyer
 Ceratitis zairensis De Meyer
-Sous-genre Pterandrus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ceratitis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratitis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-genre Pterandrus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ceratitis acicularis (Munro)
 Ceratitis anonae Graham
 Ceratitis bicincta Enderlein
@@ -633,7 +833,43 @@
 Ceratitis rubivora (Coquillett)
 Ceratitis tananarivana Hancock
 Ceratitis tripteris (Munro)
-Sous-genre inconnu
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ceratitis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratitis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-genre inconnu</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ceratitis fasciventris (Bezzi)
 </t>
         </is>
